--- a/NUEVO.xlsx
+++ b/NUEVO.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">fondària</t>
+    <t xml:space="preserve">fondaria</t>
   </si>
   <si>
     <t xml:space="preserve">any</t>
